--- a/output/downloads/zcjd/政策解读.xlsx
+++ b/output/downloads/zcjd/政策解读.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-07-18_《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-18_《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-07-17_关于进口散装食用植物油贮存运输有关要求的公告政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-17_关于进口散装食用植物油贮存运输有关要求的公告政策解读.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-07-11_政策解读  关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-11_政策解读  关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-30_香港输内地乳品检验检疫和卫生要求公告解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-30_香港输内地乳品检验检疫和卫生要求公告解读.zip</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -736,7 +736,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-30_政策解读  马拉维夏威夷果输华检验检疫和卫生要求.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-30_政策解读  马拉维夏威夷果输华检验检疫和卫生要求.zip</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -788,7 +788,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-26_政策解读：冈比亚腰果输华检验检疫和卫生要求.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-26_政策解读：冈比亚腰果输华检验检疫和卫生要求.zip</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -840,7 +840,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-24_政策解读：海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-24_政策解读：海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告.zip</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -892,7 +892,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-24_海关总署关于《海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告》的解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-24_海关总署关于《海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告》的解读.zip</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -944,7 +944,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-17_政策解读｜海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-17_政策解读｜海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -996,7 +996,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-13_政策解读｜海关总署关于进口克罗地亚养殖水产品检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-13_政策解读｜海关总署关于进口克罗地亚养殖水产品检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-09_政策解读：关于海关特殊监管区域、保税监管场所和区外加工贸易四类措施商品申报填制规范的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-09_政策解读：关于海关特殊监管区域、保税监管场所和区外加工贸易四类措施商品申报填制规范的公告.zip</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-09_政策解读  海关总署关于进口委内瑞拉绿豆植物检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-09_政策解读  海关总署关于进口委内瑞拉绿豆植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-06_政策解读：卢旺达干坚果输华检验检疫和卫生要求.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-06_政策解读：卢旺达干坚果输华检验检疫和卫生要求.zip</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-06_解读 《海关总署关于进口丹麦大麦植物检疫要求的公告》.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-06_解读 《海关总署关于进口丹麦大麦植物检疫要求的公告》.zip</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-05_进口俄罗斯黑麦粉检验检疫要求政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-05_进口俄罗斯黑麦粉检验检疫要求政策解读.zip</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-05_进口俄罗斯麦糁检验检疫要求政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-05_进口俄罗斯麦糁检验检疫要求政策解读.zip</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-05_政策解读  进口保加利亚西红花植物检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-05_政策解读  进口保加利亚西红花植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关_附件1\output\downloads\zcjd\2025-06-04_沙特输华乳品检验检疫和卫生要求公告解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-04_沙特输华乳品检验检疫和卫生要求公告解读.zip</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1428,6 +1428,110 @@
       <c r="L19" t="inlineStr">
         <is>
           <t>政策解读-2025-06-04-沙特输华乳品检验检疫和卫生要求公告解读</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>政策解读：海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>政策解读</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6595540/index.html</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-06-25</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-25_政策解读：海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.zip</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>[{'text': '· 海关总署公告2025年第129号（关于进口哈萨克斯坦甜菜粕检验检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6594296/index.html'}]</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>政策解读-2025-06-25-政策解读：海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>政策解读：关于进口乌拉圭豆粕和油菜籽粕检验检疫要求的公告</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>政策解读</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6560320/index.html</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-06-09</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>有效</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-09_政策解读：关于进口乌拉圭豆粕和油菜籽粕检验检疫要求的公告.zip</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>[{'text': '· 海关总署公告2025年第118号（关于进口乌拉圭豆粕和油菜籽粕植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6559254/index.html'}]</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>政策解读-2025-06-09-政策解读：关于进口乌拉圭豆粕和油菜籽粕检验检疫要求的公告</t>
         </is>
       </c>
     </row>

--- a/output/downloads/zcjd/政策解读.xlsx
+++ b/output/downloads/zcjd/政策解读.xlsx
@@ -498,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读</t>
+          <t>海南自由贸易港进口货物海关径予放行管理规定政策解读</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -508,19 +508,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6629731/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6705111/index.html</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2025-07-18</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -528,7 +528,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-18_《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-29_海南自由贸易港进口货物海关径予放行管理规定政策解读.zip</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -538,19 +538,19 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第148号（关于发布《2025年第八届中国国际进口博览会海关通关须知...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6629145/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第172号（关于发布《海南自由贸易港进口货物海关径予放行管理规定》的...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6697170/index.html'}]</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>政策解读-2025-07-18-《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读</t>
+          <t>政策解读-2025-08-29-海南自由贸易港进口货物海关径予放行管理规定政策解读</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>关于进口散装食用植物油贮存运输有关要求的公告政策解读</t>
+          <t>政策解读 | 海关总署关于自海南自由贸易港进入中华人民共和国关境内其他地区的进口货物报关单填制要求的公告</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -560,19 +560,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6628386/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6705079/index.html</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2025-07-17</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -580,7 +580,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-17_关于进口散装食用植物油贮存运输有关要求的公告政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-29_政策解读  海关总署关于自海南自由贸易港进入中华人民共和国关境内其他地区的进口货物报关单填制要求的公告.zip</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -590,19 +590,19 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第147号（关于进口散装食用植物油贮存运输有关要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6627437/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第173号（关于自海南自由贸易港进入中华人民共和国关境内其他地区的进...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6697180/index.html'}]</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>政策解读-2025-07-17-关于进口散装食用植物油贮存运输有关要求的公告政策解读</t>
+          <t>政策解读-2025-08-29-政策解读 | 海关总署关于自海南自由贸易港进入中华人民共和国关境内其他地区的进口货物报关单填制要求的公告</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>政策解读 | 关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
+          <t>政策解读 | 进口哥斯达黎加鲜食甜瓜植物检疫要求</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -612,19 +612,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6621308/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6705054/index.html</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2025-07-11</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -632,7 +632,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-11_政策解读  关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-29_政策解读  进口哥斯达黎加鲜食甜瓜植物检疫要求.zip</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -642,19 +642,19 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第145号（关于进口埃塞俄比亚豆粕检验检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6612828/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第174号（关于进口哥斯达黎加鲜食甜瓜植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/302266/302267/6699625/index.html'}]</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>政策解读-2025-07-11-政策解读 | 关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
+          <t>政策解读-2025-08-29-政策解读 | 进口哥斯达黎加鲜食甜瓜植物检疫要求</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>香港输内地乳品检验检疫和卫生要求公告解读</t>
+          <t>政策解读 | 进口洪都拉斯烟叶植物检疫要求</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -664,19 +664,19 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6600950/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6705040/index.html</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-30_香港输内地乳品检验检疫和卫生要求公告解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-29_政策解读  进口洪都拉斯烟叶植物检疫要求.zip</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -694,19 +694,19 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第137号（关于香港输内地乳品检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6599629/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第179号（关于进口洪都拉斯烟叶植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6701084/index.html'}]</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-30-香港输内地乳品检验检疫和卫生要求公告解读</t>
+          <t>政策解读-2025-08-29-政策解读 | 进口洪都拉斯烟叶植物检疫要求</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>政策解读 | 马拉维夏威夷果输华检验检疫和卫生要求</t>
+          <t>关于海南自贸港货物进出“一线”、“二线”及在岛内流通税收政策有关执行事项的解读材料</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -716,19 +716,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6600939/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6705002/index.html</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2025-06-30</t>
+          <t>2025-08-29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-30_政策解读  马拉维夏威夷果输华检验检疫和卫生要求.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-29_关于海南自贸港货物进出“一线”、“二线”及在岛内流通税收政策有关执行事项的解读材料.zip</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -746,19 +746,19 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第136号（关于进口马拉维夏威夷果检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6599581/index.html'}]</t>
+          <t>[{'text': '· 海关总署关于执行海南自由贸易港货物进出“一线、“二线”及在岛内流通税收政策有关要求的通知', 'url': 'http://www.customs.gov.cn/customs/302249/zfxxgk/zfxxgkml34/6699349/index.html'}]</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-30-政策解读 | 马拉维夏威夷果输华检验检疫和卫生要求</t>
+          <t>政策解读-2025-08-29-关于海南自贸港货物进出“一线”、“二线”及在岛内流通税收政策有关执行事项的解读材料</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>政策解读：冈比亚腰果输华检验检疫和卫生要求</t>
+          <t>政策解读 | 海关总署关于进口澳大利亚鲜食苹果植物检疫要求</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -768,19 +768,19 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6598045/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6663022/index.html</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2025-06-26</t>
+          <t>2025-08-08</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -788,7 +788,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-26_政策解读：冈比亚腰果输华检验检疫和卫生要求.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-08_政策解读  海关总署关于进口澳大利亚鲜食苹果植物检疫要求.zip</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -798,19 +798,19 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第135号（关于进口冈比亚腰果检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6597056/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第169号（关于进口澳大利亚鲜食苹果植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/302266/302267/6662652/index.html'}]</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-26-政策解读：冈比亚腰果输华检验检疫和卫生要求</t>
+          <t>政策解读-2025-08-08-政策解读 | 海关总署关于进口澳大利亚鲜食苹果植物检疫要求</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>政策解读：海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告</t>
+          <t>政策解读 | 海关总署关于中国鲜枣出口澳大利亚植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -820,19 +820,19 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6594467/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6659308/index.html</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-08-05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -840,7 +840,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-24_政策解读：海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-05_政策解读  海关总署关于中国鲜枣出口澳大利亚植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -850,19 +850,19 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第127号（关于启用进出境邮件“一站式”办理平台有关事宜的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6593457/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第167号（关于中国鲜枣出口澳大利亚植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6656984/index.html'}]</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-24-政策解读：海关总署关于启用进出境邮件“一站式”办理平台有关事宜的公告</t>
+          <t>政策解读-2025-08-05-政策解读 | 海关总署关于中国鲜枣出口澳大利亚植物检疫要求的公告</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>海关总署关于《海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告》的解读</t>
+          <t>政策解读 | 海关总署关于进口新西兰鹿茸鹿角检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -872,19 +872,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6594282/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6652276/index.html</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2025-06-24</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-24_海关总署关于《海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告》的解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-01_政策解读  海关总署关于进口新西兰鹿茸鹿角检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -902,19 +902,19 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第128号（关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6593463/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第166号（关于进口新西兰鹿茸鹿角检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6649498/index.html'}]</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-24-海关总署关于《海关总署关于实施中国—厄瓜多尔海关“经认证的经营者”（AEO）互认的公告》的解读</t>
+          <t>政策解读-2025-08-01-政策解读 | 海关总署关于进口新西兰鹿茸鹿角检疫和卫生要求的公告</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>政策解读｜海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告</t>
+          <t>《海关总署关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的公告》的解读</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -924,19 +924,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6581794/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6652198/index.html</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-17_政策解读｜海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-01_《海关总署关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的公告》的解读.zip</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -954,19 +954,19 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第122号（关于进口沙特养殖水产品检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6577662/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第164号（关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6647130/index.html'}]</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-17-政策解读｜海关总署关于进口沙特养殖水产品检验检疫和卫生要求的公告</t>
+          <t>政策解读-2025-08-01-《海关总署关于实施中国—贝宁海关“经认证的经营者”（AEO）互认的公告》的解读</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>政策解读｜海关总署关于进口克罗地亚养殖水产品检验检疫和卫生要求的公告</t>
+          <t>政策解读 | 海关总署关于进口刚果共和国花生植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -976,19 +976,19 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6572809/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6652145/index.html</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2025-06-13</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -996,7 +996,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-13_政策解读｜海关总署关于进口克罗地亚养殖水产品检验检疫和卫生要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-01_政策解读  海关总署关于进口刚果共和国花生植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1006,19 +1006,19 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第121号（关于进口克罗地亚养殖水产品检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6572833/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第157号（关于进口刚果共和国花生植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6637638/index.html'}]</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-13-政策解读｜海关总署关于进口克罗地亚养殖水产品检验检疫和卫生要求的公告</t>
+          <t>政策解读-2025-08-01-政策解读 | 海关总署关于进口刚果共和国花生植物检疫要求的公告</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>政策解读：关于海关特殊监管区域、保税监管场所和区外加工贸易四类措施商品申报填制规范的公告</t>
+          <t>政策解读 | 海关总署关于进口厄瓜多尔芒果植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1028,19 +1028,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6561473/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6652132/index.html</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1048,7 +1048,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-09_政策解读：关于海关特殊监管区域、保税监管场所和区外加工贸易四类措施商品申报填制规范的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-01_政策解读  海关总署关于进口厄瓜多尔芒果植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1058,19 +1058,19 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第116号（关于海关特殊监管区域、保税监管场所和区外加工贸易四类措施...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6555854/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第163号（关于进口厄瓜多尔芒果植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6646574/index.html'}]</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-09-政策解读：关于海关特殊监管区域、保税监管场所和区外加工贸易四类措施商品申报填制规范的公告</t>
+          <t>政策解读-2025-08-01-政策解读 | 海关总署关于进口厄瓜多尔芒果植物检疫要求的公告</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>政策解读 | 海关总署关于进口委内瑞拉绿豆植物检疫要求的公告</t>
+          <t>政策解读 | 海关总署关于中国柚子出口新西兰植物检疫要求的公告</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1080,19 +1080,19 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6560282/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6652101/index.html</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-08-01</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-09_政策解读  海关总署关于进口委内瑞拉绿豆植物检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-08-01_政策解读  海关总署关于中国柚子出口新西兰植物检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1110,19 +1110,19 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第119号（关于进口委内瑞拉绿豆植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6559243/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第165号（关于中国柚子出口新西兰植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6647797/index.html'}]</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-09-政策解读 | 海关总署关于进口委内瑞拉绿豆植物检疫要求的公告</t>
+          <t>政策解读-2025-08-01-政策解读 | 海关总署关于中国柚子出口新西兰植物检疫要求的公告</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>政策解读：卢旺达干坚果输华检验检疫和卫生要求</t>
+          <t>解读|《关于规范锂离子电池用再生黑粉原料、再生钢铁原料进口管理有关事项的公告》</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1132,19 +1132,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6559054/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6649091/index.html</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-07-30</t>
         </is>
       </c>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-06_政策解读：卢旺达干坚果输华检验检疫和卫生要求.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-30_解读《关于规范锂离子电池用再生黑粉原料、再生钢铁原料进口管理有关事项的公告》.zip</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1162,19 +1162,19 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第117号（关于进口卢旺达干坚果检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6559225/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第161号（关于发布《进口锂离子电池用再生黑粉原料检验规程》等64项...', 'url': 'http://www.customs.gov.cn/customs/302249/302266/302267/6648404/index.html'}, {'text': '· 关于规范锂离子电池用再生黑粉原料、再生钢铁原料进口管理有关事项的公告', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6649827/index.html'}]</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-06-政策解读：卢旺达干坚果输华检验检疫和卫生要求</t>
+          <t>政策解读-2025-07-30-解读|《关于规范锂离子电池用再生黑粉原料、再生钢铁原料进口管理有关事项的公告》</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>解读 《海关总署关于进口丹麦大麦植物检疫要求的公告》</t>
+          <t>《海关总署关于实施中国—泰国海关“经认证的经营者”（AEO）互认的公告》的解读</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1184,19 +1184,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6555900/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6643174/index.html</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2025-06-06</t>
+          <t>2025-07-25</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-06_解读 《海关总署关于进口丹麦大麦植物检疫要求的公告》.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-25_《海关总署关于实施中国—泰国海关“经认证的经营者”（AEO）互认的公告》的解读.zip</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1214,19 +1214,19 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第114号（关于进口丹麦大麦植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6555772/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第160号（关于实施中国—泰国海关“经认证的经营者”（AEO）互认的...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6642703/index.html'}]</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-06-解读 《海关总署关于进口丹麦大麦植物检疫要求的公告》</t>
+          <t>政策解读-2025-07-25-《海关总署关于实施中国—泰国海关“经认证的经营者”（AEO）互认的公告》的解读</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>进口俄罗斯黑麦粉检验检疫要求政策解读</t>
+          <t>解读 | 海关总署关于进口新西兰野生水产品检验检疫和卫生要求的公告</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1236,19 +1236,19 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6555575/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6638053/index.html</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-23</t>
         </is>
       </c>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-05_进口俄罗斯黑麦粉检验检疫要求政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-23_解读  海关总署关于进口新西兰野生水产品检验检疫和卫生要求的公告.zip</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1266,19 +1266,19 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第113号（关于俄罗斯黑麦粉输华检验检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/302266/302267/6555259/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第154号（关于进口新西兰野生水产品检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/302266/302267/6635219/index.html'}]</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-05-进口俄罗斯黑麦粉检验检疫要求政策解读</t>
+          <t>政策解读-2025-07-23-解读 | 海关总署关于进口新西兰野生水产品检验检疫和卫生要求的公告</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>进口俄罗斯麦糁检验检疫要求政策解读</t>
+          <t>《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1288,19 +1288,19 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6555554/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6629731/index.html</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-18</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1308,7 +1308,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-05_进口俄罗斯麦糁检验检疫要求政策解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-18_《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读.zip</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1318,19 +1318,19 @@
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第112号（关于俄罗斯麦糁输华检验检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/302266/302267/6555254/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第148号（关于发布《2025年第八届中国国际进口博览会海关通关须知...', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6629145/index.html'}]</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-05-进口俄罗斯麦糁检验检疫要求政策解读</t>
+          <t>政策解读-2025-07-18-《2025年第八届中国国际进口博览会海关通关须知》及相关便利措施 政策解读</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>政策解读 | 进口保加利亚西红花植物检疫要求的公告</t>
+          <t>关于进口散装食用植物油贮存运输有关要求的公告政策解读</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1340,19 +1340,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6555545/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6628386/index.html</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2025-06-05</t>
+          <t>2025-07-17</t>
         </is>
       </c>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1360,7 +1360,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-05_政策解读  进口保加利亚西红花植物检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-17_关于进口散装食用植物油贮存运输有关要求的公告政策解读.zip</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1370,19 +1370,19 @@
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第111号（关于进口保加利亚西红花植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/302266/302267/6554158/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第147号（关于进口散装食用植物油贮存运输有关要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6627437/index.html'}]</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-05-政策解读 | 进口保加利亚西红花植物检疫要求的公告</t>
+          <t>政策解读-2025-07-17-关于进口散装食用植物油贮存运输有关要求的公告政策解读</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>沙特输华乳品检验检疫和卫生要求公告解读</t>
+          <t>政策解读 | 关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1392,19 +1392,19 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6553803/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6621308/index.html</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2025-06-04</t>
+          <t>2025-07-11</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1412,7 +1412,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-04_沙特输华乳品检验检疫和卫生要求公告解读.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-11_政策解读  关于进口埃塞俄比亚豆粕检验检疫要求的公告.zip</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
@@ -1422,19 +1422,19 @@
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第108号（关于进口沙特乳品检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6552355/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第145号（关于进口埃塞俄比亚豆粕检验检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6612828/index.html'}]</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-04-沙特输华乳品检验检疫和卫生要求公告解读</t>
+          <t>政策解读-2025-07-11-政策解读 | 关于进口埃塞俄比亚豆粕检验检疫要求的公告</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>政策解读：海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告</t>
+          <t>香港输内地乳品检验检疫和卫生要求公告解读</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1444,19 +1444,19 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6595540/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6600950/index.html</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2025-06-25</t>
+          <t>2025-06-30</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1464,7 +1464,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-25_政策解读：海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-30_香港输内地乳品检验检疫和卫生要求公告解读.zip</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -1474,19 +1474,19 @@
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第129号（关于进口哈萨克斯坦甜菜粕检验检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6594296/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第137号（关于香港输内地乳品检验检疫和卫生要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6599629/index.html'}]</t>
         </is>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-25-政策解读：海关总署关于进口哈萨克斯坦甜菜粕检验检疫要求的公告</t>
+          <t>政策解读-2025-06-30-香港输内地乳品检验检疫和卫生要求公告解读</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>政策解读：关于进口乌拉圭豆粕和油菜籽粕检验检疫要求的公告</t>
+          <t>政策解读－报关单证及电子数据自助查询打印试点</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1496,19 +1496,19 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6560320/index.html</t>
+          <t>http://www.customs.gov.cn/customs/302249/302270/302272/6647848/index.html</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2025-06-09</t>
+          <t>2025-07-29</t>
         </is>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>有效</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-06-09_政策解读：关于进口乌拉圭豆粕和油菜籽粕检验检疫要求的公告.zip</t>
+          <t>D:\海关接口\海关数据推送\output\downloads\zcjd\2025-07-29_政策解读－报关单证及电子数据自助查询打印试点.zip</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1526,12 +1526,12 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>[{'text': '· 海关总署公告2025年第118号（关于进口乌拉圭豆粕和油菜籽粕植物检疫要求的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6559254/index.html'}]</t>
+          <t>[{'text': '· 海关总署公告2025年第146号（关于开展报关单证及电子数据自助查询打印试点的公告）', 'url': 'http://www.customs.gov.cn/customs/302249/2480148/6618871/index.html'}]</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>政策解读-2025-06-09-政策解读：关于进口乌拉圭豆粕和油菜籽粕检验检疫要求的公告</t>
+          <t>政策解读-2025-07-29-政策解读－报关单证及电子数据自助查询打印试点</t>
         </is>
       </c>
     </row>
